--- a/data_processed/20250911/BTCUSDQMOMENT_20250911.xlsx
+++ b/data_processed/20250911/BTCUSDQMOMENT_20250911.xlsx
@@ -612,19 +612,19 @@
         <v>0.2904109589041096</v>
       </c>
       <c r="D5" t="n">
-        <v>117150.6044848357</v>
+        <v>117150.2461360985</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.005997622062143608</v>
+        <v>-0.006123160580031033</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2038613149371446</v>
+        <v>0.2050107471725738</v>
       </c>
       <c r="G5" t="n">
-        <v>-1.36640288000329</v>
+        <v>-1.433875363915494</v>
       </c>
       <c r="H5" t="n">
-        <v>11.67456551442118</v>
+        <v>12.54071655823056</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -714,19 +714,19 @@
         <v>0.7123287671232876</v>
       </c>
       <c r="D8" t="n">
-        <v>118904.8725118622</v>
+        <v>118916.577262021</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.02796733025776764</v>
+        <v>-0.0251494183698092</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2081743371558379</v>
+        <v>0.1873896576901241</v>
       </c>
       <c r="G8" t="n">
-        <v>-2.281703596102505</v>
+        <v>-1.249267059359946</v>
       </c>
       <c r="H8" t="n">
-        <v>21.23155279173184</v>
+        <v>9.107047764240379</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -748,19 +748,19 @@
         <v>0.7890410958904109</v>
       </c>
       <c r="D9" t="n">
-        <v>120402.3797145811</v>
+        <v>120416.6278506177</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.05890508454771556</v>
+        <v>-0.05699414791304799</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3320216454383011</v>
+        <v>0.3172890691105682</v>
       </c>
       <c r="G9" t="n">
-        <v>-2.225657344303349</v>
+        <v>-1.872573934556988</v>
       </c>
       <c r="H9" t="n">
-        <v>15.64812030733237</v>
+        <v>11.80292490804769</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -782,19 +782,19 @@
         <v>1.038356164383562</v>
       </c>
       <c r="D10" t="n">
-        <v>122396.7385939461</v>
+        <v>122002.9942314485</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.08230125668399267</v>
+        <v>-0.09392150898699426</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3608128632518757</v>
+        <v>0.4010852999498444</v>
       </c>
       <c r="G10" t="n">
-        <v>-1.555847424069358</v>
+        <v>-1.866035533514716</v>
       </c>
       <c r="H10" t="n">
-        <v>7.978259481991468</v>
+        <v>9.817061849021904</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -816,19 +816,19 @@
         <v>1.284931506849315</v>
       </c>
       <c r="D11" t="n">
-        <v>123956.9059203563</v>
+        <v>123946.6238077755</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.1555348028303687</v>
+        <v>-0.1595794594908676</v>
       </c>
       <c r="F11" t="n">
-        <v>0.635867501115666</v>
+        <v>0.6667345552668406</v>
       </c>
       <c r="G11" t="n">
-        <v>-2.316233665953103</v>
+        <v>-2.4897779792289</v>
       </c>
       <c r="H11" t="n">
-        <v>10.40252333034482</v>
+        <v>11.88858874292346</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -884,19 +884,19 @@
         <v>0.0136986301369863</v>
       </c>
       <c r="D13" t="n">
-        <v>114907.0504968996</v>
+        <v>114907.3229185066</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0342434638350548</v>
+        <v>0.03426577685721082</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1073213503608973</v>
+        <v>0.1072864368906373</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.6775292914356353</v>
+        <v>-0.6763856222028046</v>
       </c>
       <c r="H13" t="n">
-        <v>6.837531519633435</v>
+        <v>6.83385722220373</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -918,19 +918,19 @@
         <v>0.01643835616438356</v>
       </c>
       <c r="D14" t="n">
-        <v>114913.2812801584</v>
+        <v>114912.6081470953</v>
       </c>
       <c r="E14" t="n">
-        <v>0.03002364862387137</v>
+        <v>0.02997203823671524</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1157903226938213</v>
+        <v>0.1158857749884572</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.6842554309232842</v>
+        <v>-0.6877102909796046</v>
       </c>
       <c r="H14" t="n">
-        <v>6.917147901119264</v>
+        <v>6.931938019205041</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -1056,19 +1056,19 @@
         <v>0.06027397260273973</v>
       </c>
       <c r="D18" t="n">
-        <v>115786.5778048187</v>
+        <v>115846.3616182638</v>
       </c>
       <c r="E18" t="n">
-        <v>0.03135289385886732</v>
+        <v>0.03460914777348335</v>
       </c>
       <c r="F18" t="n">
-        <v>0.153489402768434</v>
+        <v>0.1410538038394651</v>
       </c>
       <c r="G18" t="n">
-        <v>-1.438802980095279</v>
+        <v>-0.746881217033992</v>
       </c>
       <c r="H18" t="n">
-        <v>13.76763375469023</v>
+        <v>6.961375465380724</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>

--- a/data_processed/20250911/BTCUSDQMOMENT_20250911.xlsx
+++ b/data_processed/20250911/BTCUSDQMOMENT_20250911.xlsx
@@ -864,10 +864,18 @@
       <c r="H12" t="n">
         <v>4.32887360222632</v>
       </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="I12" t="n">
+        <v>0.1644653861563335</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.004166984081917661</v>
+      </c>
+      <c r="K12" t="n">
+        <v>-0.009744353085738667</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1.829707928933755</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -898,10 +906,18 @@
       <c r="H13" t="n">
         <v>6.83385722220373</v>
       </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+      <c r="I13" t="n">
+        <v>0.1568772835360597</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.003563904471037351</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.3221801397222507</v>
+      </c>
+      <c r="L13" t="n">
+        <v>2.100310050176578</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -932,10 +948,18 @@
       <c r="H14" t="n">
         <v>6.931938019205041</v>
       </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+      <c r="I14" t="n">
+        <v>0.1717729212645522</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.004079320509223575</v>
+      </c>
+      <c r="K14" t="n">
+        <v>-0.03643626733293952</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1.679618112128374</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -966,10 +990,18 @@
       <c r="H15" t="n">
         <v>6.245935127005477</v>
       </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+      <c r="I15" t="n">
+        <v>0.2268026515618569</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.02166618773604188</v>
+      </c>
+      <c r="K15" t="n">
+        <v>1.384061321255182</v>
+      </c>
+      <c r="L15" t="n">
+        <v>3.823793060073173</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">

--- a/data_processed/20250911/BTCUSDQMOMENT_20250911.xlsx
+++ b/data_processed/20250911/BTCUSDQMOMENT_20250911.xlsx
@@ -524,10 +524,18 @@
       <c r="H2" t="n">
         <v>11.197878828116</v>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
+      <c r="I2" t="n">
+        <v>0.02803271665403035</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.1241909025990734</v>
+      </c>
+      <c r="K2" t="n">
+        <v>-1.074891792967301</v>
+      </c>
+      <c r="L2" t="n">
+        <v>3.722964740313175</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1068,10 +1076,18 @@
       <c r="H17" t="n">
         <v>6.016509364523203</v>
       </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+      <c r="I17" t="n">
+        <v>0.2379546521669993</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.01982848409151632</v>
+      </c>
+      <c r="K17" t="n">
+        <v>1.176960613970059</v>
+      </c>
+      <c r="L17" t="n">
+        <v>3.604362388721714</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">

--- a/data_processed/20250911/BTCUSDQMOMENT_20250911.xlsx
+++ b/data_processed/20250911/BTCUSDQMOMENT_20250911.xlsx
@@ -1118,10 +1118,18 @@
       <c r="H18" t="n">
         <v>6.961375465380724</v>
       </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="I18" t="n">
+        <v>0.03858115821364612</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.23502451085558</v>
+      </c>
+      <c r="K18" t="n">
+        <v>-0.2184581852699795</v>
+      </c>
+      <c r="L18" t="n">
+        <v>2.731007526202857</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1152,10 +1160,18 @@
       <c r="H19" t="n">
         <v>5.479943412847926</v>
       </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="I19" t="n">
+        <v>0.3569533601582136</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.503493624976924</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.1370214183447129</v>
+      </c>
+      <c r="L19" t="n">
+        <v>2.132386593961161</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">

--- a/data_processed/20250911/BTCUSDQMOMENT_20250911.xlsx
+++ b/data_processed/20250911/BTCUSDQMOMENT_20250911.xlsx
@@ -566,10 +566,18 @@
       <c r="H3" t="n">
         <v>9.359814936911434</v>
       </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
+      <c r="I3" t="n">
+        <v>-0.04578012498524904</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.5967123075441018</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.4408012633709308</v>
+      </c>
+      <c r="L3" t="n">
+        <v>2.553532143010382</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1202,10 +1210,18 @@
       <c r="H20" t="n">
         <v>5.834648396060894</v>
       </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="I20" t="n">
+        <v>0.1801380462221302</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.5767138759588911</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.1547621596160096</v>
+      </c>
+      <c r="L20" t="n">
+        <v>2.505388901929666</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
